--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/ARIZONA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/ARIZONA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1366"/>
+  <dimension ref="A1:D1360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C67">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C72">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C83">
@@ -1901,7 +1901,7 @@
         <v>139</v>
       </c>
       <c r="D116">
-        <v>0.009453210010881393</v>
+        <v>0.009453210010881391</v>
       </c>
     </row>
     <row r="117">
@@ -2024,7 +2024,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C126">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C129">
@@ -2135,7 +2135,7 @@
         <v>141</v>
       </c>
       <c r="D134">
-        <v>0.009589227421109903</v>
+        <v>0.009589227421109904</v>
       </c>
     </row>
     <row r="135">
@@ -2349,7 +2349,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C151">
@@ -2588,7 +2588,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C169">
@@ -2775,7 +2775,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C183">
@@ -2801,7 +2801,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C203">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C216">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C220">
@@ -3357,7 +3357,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C227">
@@ -3370,7 +3370,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C228">
@@ -3383,7 +3383,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C229">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C230">
@@ -3526,12 +3526,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C240">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C243">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C244">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C248">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C255">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C258">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C264">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C267">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C268">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C277">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C288">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C297">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C303">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C309">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C310">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C312">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C325">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C333">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C337">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C345">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C349">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C351">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C353">
@@ -5031,7 +5031,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C355">
@@ -5057,7 +5057,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C357">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C361">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C366">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C369">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C372">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C375">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C378">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C380">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C381">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C387">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C391">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C392">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C396">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C397">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C400">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C402">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C417">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C419">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C421">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C423">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C426">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C427">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C438">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C443">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C448">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C453">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C455">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C461">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C464">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C466">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C468">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C469">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C474">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C477">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C479">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C481">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C487">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C488">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C491">
@@ -6822,7 +6822,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C492">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C496">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C500">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C503">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C505">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C515">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C519">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C526">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C527">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C531">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C536">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C543">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C548">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C551">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C553">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C554">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C558">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C563">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C565">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C566">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C578">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C584">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C587">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C589">
@@ -8353,7 +8353,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C609">
@@ -8379,7 +8379,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C611">
@@ -9606,7 +9606,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C705">
@@ -9658,7 +9658,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C709">
@@ -9671,7 +9671,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C710">
@@ -9749,7 +9749,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C716">
@@ -9806,7 +9806,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C720">
@@ -9819,7 +9819,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C721">
@@ -9871,7 +9871,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C725">
@@ -9949,7 +9949,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C731">
@@ -10149,7 +10149,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C746">
@@ -10188,7 +10188,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C749">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C751">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C757">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C758">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C760">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C761">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C762">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C763">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C764">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C767">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C770">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C774">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C776">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C780">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C820">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C827">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C846">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C856">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C860">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C900">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C901">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C902">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C904">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C905">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C906">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C909">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C925">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C935">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C942">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C947">
@@ -12850,7 +12850,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C953">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C954">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C959">
@@ -13058,7 +13058,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C969">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C971">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C975">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C980">
@@ -13253,7 +13253,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C984">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C986">
@@ -13331,7 +13331,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C990">
@@ -13448,7 +13448,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C999">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1012">
@@ -13648,7 +13648,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1014">
@@ -13687,7 +13687,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1017">
@@ -13700,7 +13700,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1018">
@@ -13739,7 +13739,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1021">
@@ -13778,7 +13778,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1024">
@@ -13931,7 +13931,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1035">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1039">
@@ -14087,7 +14087,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1047">
@@ -14113,7 +14113,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1049">
@@ -14152,7 +14152,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1052">
@@ -14165,7 +14165,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1053">
@@ -15033,7 +15033,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1119">
@@ -15202,7 +15202,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1132">
@@ -15654,7 +15654,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1166">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1172">
@@ -15815,7 +15815,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1178">
@@ -15867,7 +15867,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1182">
@@ -15906,7 +15906,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1185">
@@ -16106,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1200">
@@ -16210,7 +16210,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1208">
@@ -16223,7 +16223,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1209">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1213">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1223">
@@ -16548,7 +16548,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1234">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1236">
@@ -16587,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1237">
@@ -16704,7 +16704,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1246">
@@ -16743,7 +16743,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1249">
@@ -16795,7 +16795,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1253">
@@ -16821,7 +16821,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1255">
@@ -16938,7 +16938,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1264">
@@ -16964,7 +16964,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1266">
@@ -16990,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1268">
@@ -17094,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1276">
@@ -17250,7 +17250,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1288">
@@ -17367,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1297">
@@ -17598,7 +17598,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1314">
@@ -17624,7 +17624,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1316">
@@ -17650,7 +17650,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1318">
@@ -17780,7 +17780,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1328">
@@ -17832,7 +17832,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1332">
@@ -17871,7 +17871,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1335">
@@ -17884,7 +17884,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1336">
@@ -17897,7 +17897,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1337">
@@ -18040,7 +18040,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1348">
@@ -18053,7 +18053,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1349">
@@ -18066,7 +18066,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1350">
@@ -18105,7 +18105,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1353">
@@ -18204,41 +18204,6 @@
       </c>
       <c r="D1360">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
